--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3406,6 +3406,799 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111936854</v>
+      </c>
+      <c r="B25" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>450998.3386916541</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7087288.958247212</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111936892</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>451172.0902361136</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7086726.569319103</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111936864</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>451094.1385684713</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7087212.607717684</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111936894</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>760</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>451168.6101546783</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7086616.526546557</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111936789</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>450955.1314140605</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7087063.751596102</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111936793</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>451088.7179698629</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7087232.506422138</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111936860</v>
+      </c>
+      <c r="B31" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>450975.0281813644</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7086982.857739178</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936854</v>
+        <v>111936793</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3442,16 +3442,20 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450998.3386916541</v>
+        <v>451088.7179698629</v>
       </c>
       <c r="R25" t="n">
-        <v>7087288.958247212</v>
+        <v>7087232.506422138</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3494,6 +3498,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3520,10 +3529,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936892</v>
+        <v>111936894</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>89965</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3532,25 +3541,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>760</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3560,10 +3569,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>451172.0902361136</v>
+        <v>451168.6101546783</v>
       </c>
       <c r="R26" t="n">
-        <v>7086726.569319103</v>
+        <v>7086616.526546557</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3632,10 +3641,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936864</v>
+        <v>111936892</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3648,21 +3657,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3672,10 +3681,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>451094.1385684713</v>
+        <v>451172.0902361136</v>
       </c>
       <c r="R27" t="n">
-        <v>7087212.607717684</v>
+        <v>7086726.569319103</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3744,10 +3753,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936894</v>
+        <v>111936789</v>
       </c>
       <c r="B28" t="n">
-        <v>89965</v>
+        <v>90087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3756,25 +3765,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>760</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3784,10 +3793,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>451168.6101546783</v>
+        <v>450955.1314140605</v>
       </c>
       <c r="R28" t="n">
-        <v>7086616.526546557</v>
+        <v>7087063.751596102</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3856,10 +3865,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936789</v>
+        <v>111936864</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3868,25 +3877,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3896,10 +3905,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450955.1314140605</v>
+        <v>451094.1385684713</v>
       </c>
       <c r="R29" t="n">
-        <v>7087063.751596102</v>
+        <v>7087212.607717684</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3968,10 +3977,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936793</v>
+        <v>111936854</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3984,16 +3993,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4002,20 +4011,16 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>451088.7179698629</v>
+        <v>450998.3386916541</v>
       </c>
       <c r="R30" t="n">
-        <v>7087232.506422138</v>
+        <v>7087288.958247212</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4058,11 +4063,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936793</v>
+        <v>111936854</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3442,20 +3442,16 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>451088.7179698629</v>
+        <v>450998.3386916541</v>
       </c>
       <c r="R25" t="n">
-        <v>7087232.506422138</v>
+        <v>7087288.958247212</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3498,11 +3494,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3641,10 +3632,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936892</v>
+        <v>111936864</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3657,21 +3648,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3681,10 +3672,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>451172.0902361136</v>
+        <v>451094.1385684713</v>
       </c>
       <c r="R27" t="n">
-        <v>7086726.569319103</v>
+        <v>7087212.607717684</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3753,10 +3744,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936789</v>
+        <v>111936860</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3765,25 +3756,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3793,10 +3784,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450955.1314140605</v>
+        <v>450975.0281813644</v>
       </c>
       <c r="R28" t="n">
-        <v>7087063.751596102</v>
+        <v>7086982.857739178</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3865,10 +3856,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936864</v>
+        <v>111936789</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3877,25 +3868,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3905,10 +3896,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>451094.1385684713</v>
+        <v>450955.1314140605</v>
       </c>
       <c r="R29" t="n">
-        <v>7087212.607717684</v>
+        <v>7087063.751596102</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3977,10 +3968,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936854</v>
+        <v>111936793</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3993,16 +3984,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4011,16 +4002,20 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450998.3386916541</v>
+        <v>451088.7179698629</v>
       </c>
       <c r="R30" t="n">
-        <v>7087288.958247212</v>
+        <v>7087232.506422138</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4063,6 +4058,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4089,10 +4089,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936860</v>
+        <v>111936892</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4105,21 +4105,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4129,10 +4129,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450975.0281813644</v>
+        <v>451172.0902361136</v>
       </c>
       <c r="R31" t="n">
-        <v>7086982.857739178</v>
+        <v>7086726.569319103</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3520,10 +3520,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936894</v>
+        <v>111936860</v>
       </c>
       <c r="B26" t="n">
-        <v>89965</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3532,25 +3532,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>760</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>451168.6101546783</v>
+        <v>450975.0281813644</v>
       </c>
       <c r="R26" t="n">
-        <v>7086616.526546557</v>
+        <v>7086982.857739178</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936864</v>
+        <v>111936789</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3644,25 +3644,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>451094.1385684713</v>
+        <v>450955.1314140605</v>
       </c>
       <c r="R27" t="n">
-        <v>7087212.607717684</v>
+        <v>7087063.751596102</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936860</v>
+        <v>111936864</v>
       </c>
       <c r="B28" t="n">
         <v>89423</v>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450975.0281813644</v>
+        <v>451094.1385684713</v>
       </c>
       <c r="R28" t="n">
-        <v>7086982.857739178</v>
+        <v>7087212.607717684</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936789</v>
+        <v>111936894</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>89965</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3868,25 +3868,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>760</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3896,10 +3896,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450955.1314140605</v>
+        <v>451168.6101546783</v>
       </c>
       <c r="R29" t="n">
-        <v>7087063.751596102</v>
+        <v>7086616.526546557</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936854</v>
+        <v>111936789</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3420,25 +3420,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450998.3386916541</v>
+        <v>450955.1314140605</v>
       </c>
       <c r="R25" t="n">
-        <v>7087288.958247212</v>
+        <v>7087063.751596102</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936789</v>
+        <v>111936854</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3644,25 +3644,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>450955.1314140605</v>
+        <v>450998.3386916541</v>
       </c>
       <c r="R27" t="n">
-        <v>7087063.751596102</v>
+        <v>7087288.958247212</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3744,10 +3744,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936864</v>
+        <v>111936894</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>89965</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3756,25 +3756,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>760</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>451094.1385684713</v>
+        <v>451168.6101546783</v>
       </c>
       <c r="R28" t="n">
-        <v>7087212.607717684</v>
+        <v>7086616.526546557</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936894</v>
+        <v>111936864</v>
       </c>
       <c r="B29" t="n">
-        <v>89965</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3868,25 +3868,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>760</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3896,10 +3896,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>451168.6101546783</v>
+        <v>451094.1385684713</v>
       </c>
       <c r="R29" t="n">
-        <v>7086616.526546557</v>
+        <v>7087212.607717684</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936789</v>
+        <v>111936854</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3420,25 +3420,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450955.1314140605</v>
+        <v>450998</v>
       </c>
       <c r="R25" t="n">
-        <v>7087063.751596102</v>
+        <v>7087289</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3481,19 +3481,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3560,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450975.0281813644</v>
+        <v>450975</v>
       </c>
       <c r="R26" t="n">
-        <v>7086982.857739178</v>
+        <v>7086983</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3593,19 +3583,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3632,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936854</v>
+        <v>111936894</v>
       </c>
       <c r="B27" t="n">
-        <v>56414</v>
+        <v>89965</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3644,25 +3624,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>760</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3672,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>450998.3386916541</v>
+        <v>451169</v>
       </c>
       <c r="R27" t="n">
-        <v>7087288.958247212</v>
+        <v>7086617</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3705,19 +3685,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3744,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936894</v>
+        <v>111936789</v>
       </c>
       <c r="B28" t="n">
-        <v>89965</v>
+        <v>90087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3756,25 +3726,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>760</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3784,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>451168.6101546783</v>
+        <v>450955</v>
       </c>
       <c r="R28" t="n">
-        <v>7086616.526546557</v>
+        <v>7087064</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3817,19 +3787,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3856,10 +3816,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936864</v>
+        <v>111936793</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3872,34 +3832,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>451094.1385684713</v>
+        <v>451089</v>
       </c>
       <c r="R29" t="n">
-        <v>7087212.607717684</v>
+        <v>7087233</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3929,19 +3893,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3968,10 +3927,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936793</v>
+        <v>111936892</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3984,38 +3943,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>451088.7179698629</v>
+        <v>451172</v>
       </c>
       <c r="R30" t="n">
-        <v>7087232.506422138</v>
+        <v>7086727</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4045,24 +4000,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4089,10 +4029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936892</v>
+        <v>111936864</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4105,21 +4045,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4129,10 +4069,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>451172.0902361136</v>
+        <v>451094</v>
       </c>
       <c r="R31" t="n">
-        <v>7086726.569319103</v>
+        <v>7087213</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4162,19 +4102,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936854</v>
+        <v>111936860</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>89557</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,21 +3424,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450998</v>
+        <v>450975</v>
       </c>
       <c r="R25" t="n">
-        <v>7087289</v>
+        <v>7086983</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936860</v>
+        <v>111936864</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450975</v>
+        <v>451094</v>
       </c>
       <c r="R26" t="n">
-        <v>7086983</v>
+        <v>7087213</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936894</v>
+        <v>111936892</v>
       </c>
       <c r="B27" t="n">
-        <v>89965</v>
+        <v>77636</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>760</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>451169</v>
+        <v>451172</v>
       </c>
       <c r="R27" t="n">
-        <v>7086617</v>
+        <v>7086727</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936789</v>
+        <v>111936894</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>90099</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3726,25 +3726,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>760</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450955</v>
+        <v>451169</v>
       </c>
       <c r="R28" t="n">
-        <v>7087064</v>
+        <v>7086617</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936793</v>
+        <v>111936789</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>90221</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3828,42 +3828,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>451089</v>
+        <v>450955</v>
       </c>
       <c r="R29" t="n">
-        <v>7087233</v>
+        <v>7087064</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3896,11 +3892,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3927,10 +3918,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936892</v>
+        <v>111936854</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>56446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3943,21 +3934,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3967,10 +3958,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>451172</v>
+        <v>450998</v>
       </c>
       <c r="R30" t="n">
-        <v>7086727</v>
+        <v>7087289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4029,10 +4020,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936864</v>
+        <v>111936793</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4045,34 +4036,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>451094</v>
+        <v>451089</v>
       </c>
       <c r="R31" t="n">
-        <v>7087213</v>
+        <v>7087233</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4105,6 +4100,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936860</v>
+        <v>111936864</v>
       </c>
       <c r="B25" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450975</v>
+        <v>451094</v>
       </c>
       <c r="R25" t="n">
-        <v>7086983</v>
+        <v>7087213</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936864</v>
+        <v>111936860</v>
       </c>
       <c r="B26" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>451094</v>
+        <v>450975</v>
       </c>
       <c r="R26" t="n">
-        <v>7087213</v>
+        <v>7086983</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936892</v>
+        <v>111936793</v>
       </c>
       <c r="B27" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,34 +3628,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>451172</v>
+        <v>451089</v>
       </c>
       <c r="R27" t="n">
-        <v>7086727</v>
+        <v>7087233</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3688,6 +3692,11 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3717,7 +3726,7 @@
         <v>111936894</v>
       </c>
       <c r="B28" t="n">
-        <v>90099</v>
+        <v>90113</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3819,7 +3828,7 @@
         <v>111936789</v>
       </c>
       <c r="B29" t="n">
-        <v>90221</v>
+        <v>90235</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3918,10 +3927,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936854</v>
+        <v>111936892</v>
       </c>
       <c r="B30" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3934,21 +3943,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3958,10 +3967,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450998</v>
+        <v>451172</v>
       </c>
       <c r="R30" t="n">
-        <v>7087289</v>
+        <v>7086727</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4020,10 +4029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936793</v>
+        <v>111936854</v>
       </c>
       <c r="B31" t="n">
-        <v>56430</v>
+        <v>56446</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4036,16 +4045,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4054,20 +4063,16 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>451089</v>
+        <v>450998</v>
       </c>
       <c r="R31" t="n">
-        <v>7087233</v>
+        <v>7087289</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4100,11 +4105,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 18570-2023.xlsx
+++ b/artfynd/A 18570-2023.xlsx
@@ -3510,10 +3510,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936860</v>
+        <v>111936894</v>
       </c>
       <c r="B26" t="n">
-        <v>89571</v>
+        <v>90113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3522,25 +3522,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>760</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450975</v>
+        <v>451169</v>
       </c>
       <c r="R26" t="n">
-        <v>7086983</v>
+        <v>7086617</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936894</v>
+        <v>111936789</v>
       </c>
       <c r="B28" t="n">
-        <v>90113</v>
+        <v>90235</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3735,25 +3735,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>760</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>451169</v>
+        <v>450955</v>
       </c>
       <c r="R28" t="n">
-        <v>7086617</v>
+        <v>7087064</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936789</v>
+        <v>111936860</v>
       </c>
       <c r="B29" t="n">
-        <v>90235</v>
+        <v>89571</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3837,25 +3837,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450955</v>
+        <v>450975</v>
       </c>
       <c r="R29" t="n">
-        <v>7087064</v>
+        <v>7086983</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936892</v>
+        <v>111936854</v>
       </c>
       <c r="B30" t="n">
-        <v>77650</v>
+        <v>56446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3943,21 +3943,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>451172</v>
+        <v>450998</v>
       </c>
       <c r="R30" t="n">
-        <v>7086727</v>
+        <v>7087289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936854</v>
+        <v>111936892</v>
       </c>
       <c r="B31" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4045,21 +4045,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450998</v>
+        <v>451172</v>
       </c>
       <c r="R31" t="n">
-        <v>7087289</v>
+        <v>7086727</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
